--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2079720.050682081</v>
+        <v>2187871.143596373</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12443012.75936921</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9697971.363007391</v>
+        <v>9704014.373594647</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>230.1926570617461</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>109.9412122537102</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -756,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,22 +819,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>98.98102224012277</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.5067353239646502</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>20.75054951475542</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>53.98257112384984</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -953,13 +955,13 @@
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>23.7366424389918</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,10 +1104,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
@@ -1120,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>6.951481412226246</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>55.08225591868503</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>201.6622187863191</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1297,19 +1299,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>77.21619667811729</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>215.3873067910859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1424,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>45.16086499484859</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,7 +1536,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1576,7 +1578,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1588,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>35.0178230565848</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1664,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1813,19 +1815,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>105.6507867899569</v>
+        <v>211.147499124903</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1844,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1859,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2053,7 +2055,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2062,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>151.8518831495024</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>82.73433514020032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2239,10 +2241,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2254,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>41.02686156550228</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>204.1076305795087</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2479,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2533,16 +2535,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>117.4665281367395</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2710,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>146.4649598217087</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>75.96788793061955</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2947,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>9.146142788180832</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3010,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>172.3494546525241</v>
       </c>
     </row>
     <row r="32">
@@ -3196,16 +3198,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,10 +3237,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>134.5665975534137</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3250,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>82.73433514020032</v>
       </c>
     </row>
     <row r="35">
@@ -3427,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3442,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3487,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>157.1838954824118</v>
       </c>
     </row>
     <row r="38">
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3664,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3743,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3898,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3907,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>110.0177171766856</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4153,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>77.93612009725528</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>161.3555494301526</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1441.15107294488</v>
+        <v>1586.913505738324</v>
       </c>
       <c r="C2" t="n">
-        <v>1441.15107294488</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="D2" t="n">
-        <v>1441.15107294488</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E2" t="n">
-        <v>1055.362820346636</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F2" t="n">
-        <v>644.376915557028</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G2" t="n">
-        <v>228.6721652813169</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816085</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4355,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2184.059060190806</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>2184.059060190806</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W2" t="n">
-        <v>1831.290404920692</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="X2" t="n">
-        <v>1831.290404920692</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="Y2" t="n">
-        <v>1441.15107294488</v>
+        <v>1819.431341154229</v>
       </c>
     </row>
     <row r="3">
@@ -4401,34 +4403,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625332</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M3" t="n">
-        <v>1209.253210781439</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1843.432194560477</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>307.2185726509455</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C4" t="n">
-        <v>307.2185726509455</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D4" t="n">
-        <v>157.1019332386097</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E4" t="n">
-        <v>157.1019332386097</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F4" t="n">
-        <v>157.1019332386097</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386097</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>825.137147448514</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>825.137147448514</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W4" t="n">
-        <v>535.7199774115534</v>
+        <v>1536.465289528918</v>
       </c>
       <c r="X4" t="n">
-        <v>307.730426513536</v>
+        <v>1308.475738630901</v>
       </c>
       <c r="Y4" t="n">
-        <v>307.2185726509455</v>
+        <v>1087.683159487371</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>880.6454412161675</v>
+        <v>1302.576789404184</v>
       </c>
       <c r="C5" t="n">
-        <v>880.6454412161675</v>
+        <v>1302.576789404184</v>
       </c>
       <c r="D5" t="n">
-        <v>880.6454412161675</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="E5" t="n">
-        <v>494.8571886179232</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="F5" t="n">
-        <v>83.87128382831565</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G5" t="n">
-        <v>72.20693759300859</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816093</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872929</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
         <v>2055.22848474084</v>
@@ -4592,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2507.811478780105</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2299.06583738593</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.31341879663</v>
+        <v>2045.48477665011</v>
       </c>
       <c r="V5" t="n">
-        <v>1644.250531453059</v>
+        <v>2045.48477665011</v>
       </c>
       <c r="W5" t="n">
-        <v>1644.250531453059</v>
+        <v>1692.716121379995</v>
       </c>
       <c r="X5" t="n">
-        <v>1270.784773191979</v>
+        <v>1692.716121379995</v>
       </c>
       <c r="Y5" t="n">
-        <v>880.6454412161675</v>
+        <v>1302.576789404184</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>238.427330237016</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>614.543024838023</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694947</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828715</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1552.492103330612</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>75.22319307203523</v>
+        <v>496.992271614743</v>
       </c>
       <c r="C7" t="n">
-        <v>75.22319307203523</v>
+        <v>496.992271614743</v>
       </c>
       <c r="D7" t="n">
-        <v>75.22319307203523</v>
+        <v>346.8756322024072</v>
       </c>
       <c r="E7" t="n">
-        <v>51.24678656800311</v>
+        <v>346.8756322024072</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800311</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
         <v>51.24678656800311</v>
@@ -4723,52 +4725,52 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.862713590079</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T7" t="n">
-        <v>1310.884232784815</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U7" t="n">
-        <v>1021.765895288652</v>
+        <v>1048.115628253779</v>
       </c>
       <c r="V7" t="n">
-        <v>767.0814070827656</v>
+        <v>793.4311400478917</v>
       </c>
       <c r="W7" t="n">
-        <v>477.664237045805</v>
+        <v>504.0139700109311</v>
       </c>
       <c r="X7" t="n">
-        <v>477.664237045805</v>
+        <v>504.0139700109311</v>
       </c>
       <c r="Y7" t="n">
-        <v>256.8716579022749</v>
+        <v>496.992271614743</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>893.0229723523616</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>893.0229723523616</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>893.0229723523616</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>893.0229723523616</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.605821609171</v>
+        <v>2022.530799662409</v>
       </c>
       <c r="W8" t="n">
-        <v>3325.605821609171</v>
+        <v>1669.762144392295</v>
       </c>
       <c r="X8" t="n">
-        <v>3121.906610713899</v>
+        <v>1669.762144392295</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>1279.622812416483</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>590.20497511435</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>884.9085321458217</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>796.8106393615039</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C10" t="n">
-        <v>627.8744564335971</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D10" t="n">
-        <v>477.7578170212613</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1558.449961813773</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1558.449961813773</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1269.331624317611</v>
       </c>
       <c r="V10" t="n">
-        <v>1424.011591242373</v>
+        <v>1269.331624317611</v>
       </c>
       <c r="W10" t="n">
-        <v>1424.011591242373</v>
+        <v>1269.331624317611</v>
       </c>
       <c r="X10" t="n">
-        <v>1196.022040344356</v>
+        <v>1269.331624317611</v>
       </c>
       <c r="Y10" t="n">
-        <v>978.4591041917437</v>
+        <v>1269.331624317611</v>
       </c>
     </row>
     <row r="11">
@@ -5036,22 +5038,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111725</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5121,22 +5123,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>1465.200520057987</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N12" t="n">
-        <v>2092.798483612594</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E13" t="n">
         <v>631.7012443408906</v>
@@ -5224,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.284195611858</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y13" t="n">
-        <v>1144.284195611858</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5260,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,25 +5275,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5312,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5461,16 +5463,16 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W16" t="n">
         <v>1729.097755135313</v>
@@ -5495,16 +5497,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>2231.588527385791</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>2231.588527385791</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>2726.91413360155</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>2854.44064873475</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>3482.038612289356</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>4033.948342528643</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P18" t="n">
-        <v>4457.571492023711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3342.537229081859</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>3173.601046153952</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>3023.484406741616</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>2875.571313159223</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>4440.9326143059</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>4151.857387650098</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>3897.172899444211</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>3607.75572940725</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="X19" t="n">
-        <v>3607.75572940725</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y19" t="n">
-        <v>3524.185693912098</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5780,19 +5782,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5938,22 +5940,22 @@
         <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>2338.476105524075</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U22" t="n">
-        <v>2049.400878868273</v>
+        <v>1954.146591037919</v>
       </c>
       <c r="V22" t="n">
-        <v>1794.716390662386</v>
+        <v>1699.462102832032</v>
       </c>
       <c r="W22" t="n">
-        <v>1505.299220625425</v>
+        <v>1410.044932795071</v>
       </c>
       <c r="X22" t="n">
-        <v>1277.309669727408</v>
+        <v>1182.055381897054</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583878</v>
+        <v>961.2628027535235</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6020,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>923.0670414349511</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1550.665004989558</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2102.574735228845</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6181,16 +6183,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6215,13 +6217,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6239,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6309,16 +6311,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O27" t="n">
-        <v>2297.690135143765</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P27" t="n">
         <v>2516.421633107662</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3189.272672481338</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="C28" t="n">
-        <v>3020.336489553431</v>
+        <v>632.7557007032921</v>
       </c>
       <c r="D28" t="n">
-        <v>2870.219850141096</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>2870.219850141096</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>2723.329902643186</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>2556.133803358066</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>2414.421972200264</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>4690.833152398593</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>4471.231687421535</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>4182.156460765733</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>3927.471972559846</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>3638.054802522885</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>3410.065251624868</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>3189.272672481338</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="29">
@@ -6449,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6543,25 +6545,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2824.769373306003</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C31" t="n">
-        <v>2655.833190378096</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>2655.833190378096</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>2655.833190378096</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>2655.833190378096</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>2488.637091092976</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>2346.925259935174</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>4507.978318053498</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>4288.376853076439</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>3999.301626420637</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>3744.61713821475</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>3455.19996817779</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X31" t="n">
-        <v>3227.210417279773</v>
+        <v>1272.757518498399</v>
       </c>
       <c r="Y31" t="n">
-        <v>3006.417838136243</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="32">
@@ -6689,7 +6691,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6780,25 +6782,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>560.7825789706076</v>
+        <v>3342.537229081859</v>
       </c>
       <c r="C34" t="n">
-        <v>391.8463960427007</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D34" t="n">
-        <v>241.729756630365</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E34" t="n">
-        <v>93.81666304797187</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S34" t="n">
-        <v>2243.991523718104</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T34" t="n">
-        <v>2024.390058741045</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="U34" t="n">
-        <v>1735.314832085242</v>
+        <v>4151.857387650098</v>
       </c>
       <c r="V34" t="n">
-        <v>1480.630343879355</v>
+        <v>3897.172899444211</v>
       </c>
       <c r="W34" t="n">
-        <v>1191.213173842395</v>
+        <v>3607.75572940725</v>
       </c>
       <c r="X34" t="n">
-        <v>963.2236229443774</v>
+        <v>3607.75572940725</v>
       </c>
       <c r="Y34" t="n">
-        <v>742.4310438008473</v>
+        <v>3524.185693912098</v>
       </c>
     </row>
     <row r="35">
@@ -6923,19 +6925,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6950,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O36" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="38">
@@ -7160,34 +7162,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7254,22 +7256,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7400,31 +7402,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273903</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7546,19 +7548,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7637,37 +7639,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7719,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>800.5007694647277</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>631.5645865368208</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>481.447947124485</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>481.447947124485</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>481.447947124485</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>314.251847839365</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>172.5400166815631</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>982.1492342949674</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8058,28 +8060,28 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>255.5240487471574</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>265.0304328515151</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,16 +8294,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878355</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>211.0329012241552</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8310,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154992</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8526,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>168.7434581780645</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8550,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>134.6711151870887</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23464,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>251.5051752800062</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23701,19 +23703,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>180.5336875992872</v>
+        <v>75.03697526434112</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23941,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>134.6711151870886</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>135.8503182118945</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,10 +24180,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>176.378588761786</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>82.07684380973541</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>108.2431272522977</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>2.150513196503681</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>5.297948387945979</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>72.11969353038469</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24898,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>46.2351986995707</v>
       </c>
     </row>
     <row r="32">
@@ -25084,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,10 +25125,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>46.45968844823085</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25138,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>135.8503182118945</v>
       </c>
     </row>
     <row r="35">
@@ -25315,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25375,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>61.40075786968296</v>
       </c>
     </row>
     <row r="38">
@@ -25552,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25786,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25795,13 +25797,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>35.40333084624569</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26026,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>3.32971622131025</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
     </row>
   </sheetData>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>848277.1977260262</v>
+        <v>854813.3179772041</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>834034.6482973918</v>
+        <v>834034.6482973921</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>834034.6482973919</v>
+        <v>834034.6482973918</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>834034.6482973918</v>
+        <v>834034.6482973919</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>834034.6482973921</v>
+        <v>834034.6482973919</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>834034.6482973919</v>
+        <v>834034.6482973921</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>834034.6482973918</v>
+        <v>834034.6482973919</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>834034.6482973918</v>
+        <v>834034.6482973919</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>834034.6482973921</v>
+        <v>834034.6482973918</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>834034.6482973921</v>
+        <v>834034.6482973918</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516052</v>
+        <v>595255.2831516051</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516051</v>
+        <v>595255.2831516053</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516055</v>
+        <v>595255.2831516049</v>
       </c>
       <c r="E2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="F2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="G2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="H2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="I2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="J2" t="n">
         <v>585181.2847752545</v>
       </c>
-      <c r="F2" t="n">
-        <v>585181.2847752544</v>
-      </c>
-      <c r="G2" t="n">
-        <v>585181.2847752544</v>
-      </c>
-      <c r="H2" t="n">
-        <v>585181.2847752544</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>585181.2847752541</v>
+      </c>
+      <c r="L2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="M2" t="n">
         <v>585181.2847752543</v>
       </c>
-      <c r="J2" t="n">
-        <v>585181.2847752544</v>
-      </c>
-      <c r="K2" t="n">
-        <v>585181.2847752547</v>
-      </c>
-      <c r="L2" t="n">
-        <v>585181.2847752547</v>
-      </c>
-      <c r="M2" t="n">
-        <v>585181.2847752548</v>
-      </c>
       <c r="N2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="O2" t="n">
         <v>585181.2847752547</v>
       </c>
       <c r="P2" t="n">
-        <v>585181.2847752547</v>
+        <v>585181.2847752544</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.140440338</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>507485.4416245458</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819071</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>133113.8635467444</v>
+      </c>
+      <c r="C4" t="n">
         <v>133113.8635467443</v>
       </c>
-      <c r="C4" t="n">
-        <v>133113.8635467444</v>
-      </c>
       <c r="D4" t="n">
-        <v>86694.40323307096</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
         <v>7507.368461719668</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="L4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="N4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="O4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="P4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>92937.7724398447</v>
+      </c>
+      <c r="C5" t="n">
         <v>92937.77243984472</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>92937.7724398447</v>
-      </c>
-      <c r="D5" t="n">
-        <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-745548.1364109037</v>
+        <v>-745548.1364109034</v>
       </c>
       <c r="C6" t="n">
-        <v>369203.6471650163</v>
+        <v>369203.647165016</v>
       </c>
       <c r="D6" t="n">
-        <v>207999.7989168033</v>
+        <v>369203.6471650159</v>
       </c>
       <c r="E6" t="n">
-        <v>151138.9246822726</v>
+        <v>-30934.05513491837</v>
       </c>
       <c r="F6" t="n">
+        <v>476551.3864896275</v>
+      </c>
+      <c r="G6" t="n">
+        <v>476551.3864896274</v>
+      </c>
+      <c r="H6" t="n">
+        <v>476551.3864896275</v>
+      </c>
+      <c r="I6" t="n">
+        <v>476551.3864896276</v>
+      </c>
+      <c r="J6" t="n">
+        <v>308946.2086796452</v>
+      </c>
+      <c r="K6" t="n">
+        <v>476551.3864896272</v>
+      </c>
+      <c r="L6" t="n">
         <v>476551.3864896277</v>
       </c>
-      <c r="G6" t="n">
-        <v>476551.3864896277</v>
-      </c>
-      <c r="H6" t="n">
-        <v>476551.3864896277</v>
-      </c>
-      <c r="I6" t="n">
-        <v>476551.3864896275</v>
-      </c>
-      <c r="J6" t="n">
-        <v>308946.2086796451</v>
-      </c>
-      <c r="K6" t="n">
-        <v>476551.3864896279</v>
-      </c>
-      <c r="L6" t="n">
-        <v>428257.4164814372</v>
-      </c>
       <c r="M6" t="n">
-        <v>391496.3585541162</v>
+        <v>343944.0927607008</v>
       </c>
       <c r="N6" t="n">
-        <v>476551.3864896277</v>
+        <v>476551.3864896274</v>
       </c>
       <c r="O6" t="n">
-        <v>476551.3864896279</v>
+        <v>476551.3864896278</v>
       </c>
       <c r="P6" t="n">
-        <v>476551.3864896279</v>
+        <v>476551.3864896276</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175391</v>
+      </c>
+      <c r="C3" t="n">
         <v>934.0648921175393</v>
       </c>
-      <c r="C3" t="n">
-        <v>934.064892117539</v>
-      </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,7 +26795,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757593</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>433.9106082241345</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022538</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>152.5411846017344</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>191.0773403086952</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27537,22 +27539,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>187.5419760964682</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.0779180281301</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27619,22 +27621,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>280.2680030476499</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247052</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>69.46964427494451</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,13 +27675,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>122.6973202075774</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27822,10 +27824,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>211.6331719398685</v>
       </c>
     </row>
     <row r="8">
@@ -27853,16 +27855,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>351.7937898230264</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27901,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>168.06888189215</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28017,10 +28019,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28056,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>117.4462636836202</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.197346561008914</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31039,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336177</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342222</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745095</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744846</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347159</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178437</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040587</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.538811676207</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405673</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378624</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654578</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31449,16 +31451,16 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227907</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849626</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759584</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.19689343106956</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31841,25 +31843,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>538.5853835133125</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
@@ -32072,13 +32074,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32090,13 +32092,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>164.9290651940687</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>169.9530009943068</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32312,31 +32314,31 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>270.948695672725</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>354.9153144485699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32704,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32783,19 +32785,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32804,13 +32806,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>552.0015769888928</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32968,7 +32970,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S26" t="n">
         <v>125.31755462929</v>
@@ -33029,7 +33031,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,10 +33040,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>354.9153144485699</v>
+        <v>297.7596336167232</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33178,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33263,10 +33265,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>339.3493584601592</v>
+        <v>404.0195168876591</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33281,10 +33283,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,28 +33502,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>211.7351844430274</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,16 +33733,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,13 +33751,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>535.8585467435948</v>
       </c>
       <c r="P36" t="n">
-        <v>354.9153144485699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33889,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33974,25 +33976,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>305.187676947251</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34205,22 +34207,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>162.5000833330458</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>519.7862086120942</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34232,7 +34234,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34457,19 +34459,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>333.9544784328825</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>622.455381029198</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000389</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>514.7099619750473</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407336</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376313</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939898</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313202</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>577.9642335061958</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928738</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961229</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870591</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468032</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818071</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>355.3309544215493</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,7 +35409,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
         <v>479.454324036777</v>
@@ -35489,25 +35491,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>396.4513495912942</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>37.00975247789211</v>
@@ -35653,7 +35655,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
@@ -35720,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35738,13 +35740,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>22.33282074962425</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>128.8146617507067</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36127,10 +36129,10 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
         <v>696.488651224316</v>
@@ -36352,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36379,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,19 +36433,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36452,13 +36454,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>418.0271695745625</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36616,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,7 +36679,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,10 +36688,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>220.9409070342396</v>
+        <v>163.785226202393</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36826,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36853,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,10 +36913,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>200.7949786802851</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36929,10 +36931,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37148,28 +37150,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>73.18080466315317</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37327,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,13 +37399,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.2623022991504</v>
       </c>
       <c r="P36" t="n">
-        <v>220.9409070342396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789211</v>
@@ -37537,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37622,25 +37624,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>167.346237972892</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37795,7 +37797,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
@@ -37853,22 +37855,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>23.94570355317166</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37880,7 +37882,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38105,19 +38107,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>191.358233988438</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2187871.143596373</v>
+        <v>2183733.986346222</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283191</v>
       </c>
     </row>
     <row r="9">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>230.1926570617461</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>253.2010247345105</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -819,16 +819,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>76.89739530992237</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>98.98102224012277</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>161.5272333003439</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>53.98257112384984</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>90.69811547110022</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1119,10 +1119,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>6.951481412226246</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>55.08225591868503</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>84.79527148983823</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>26.30660220273166</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1308,7 +1308,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>77.21619667811729</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1530,13 +1530,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>30.97191586387601</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>35.0178230565848</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1618,10 +1618,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417092</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1779,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>211.147499124903</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>208.2853754830641</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2013,10 +2013,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2055,7 +2055,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>129.2171928962052</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2064,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>151.8518831495024</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2134,10 +2134,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2241,16 +2241,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U22" t="n">
-        <v>204.1076305795087</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2535,16 +2535,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>117.4665281367395</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>146.4649598217087</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>176.5022639606273</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444125</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2958,7 +2958,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>32.27552175740387</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3012,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>172.3494546525241</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3192,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>82.73433514020032</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,16 +3426,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>91.87132188693977</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3477,10 +3477,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>157.1838954824118</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>208.2585798692288</v>
       </c>
     </row>
     <row r="44">
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1586.913505738324</v>
+        <v>1076.257000807301</v>
       </c>
       <c r="C2" t="n">
-        <v>1217.950988797912</v>
+        <v>1076.257000807301</v>
       </c>
       <c r="D2" t="n">
-        <v>859.685290191162</v>
+        <v>717.9913022005505</v>
       </c>
       <c r="E2" t="n">
-        <v>473.8970375929177</v>
+        <v>717.9913022005505</v>
       </c>
       <c r="F2" t="n">
-        <v>62.91113280331017</v>
+        <v>307.005397410943</v>
       </c>
       <c r="G2" t="n">
         <v>51.24678656800311</v>
@@ -4330,13 +4330,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816085</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400155</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W2" t="n">
-        <v>2209.570673130041</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="X2" t="n">
-        <v>2209.570673130041</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="Y2" t="n">
-        <v>1819.431341154229</v>
+        <v>1462.856840871423</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
@@ -4412,25 +4412,25 @@
         <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735141</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049857</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>1605.390115761151</v>
+        <v>1541.323645957601</v>
       </c>
       <c r="O3" t="n">
-        <v>1937.460550937313</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1087.683159487371</v>
+        <v>701.61807215585</v>
       </c>
       <c r="C4" t="n">
-        <v>918.7469765594642</v>
+        <v>701.61807215585</v>
       </c>
       <c r="D4" t="n">
-        <v>768.6303371471284</v>
+        <v>551.5014327435142</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>551.5014327435142</v>
       </c>
       <c r="F4" t="n">
         <v>473.8272960668249</v>
@@ -4515,25 +4515,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="V4" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="W4" t="n">
-        <v>1536.465289528918</v>
+        <v>1150.400202197397</v>
       </c>
       <c r="X4" t="n">
-        <v>1308.475738630901</v>
+        <v>922.4106512993801</v>
       </c>
       <c r="Y4" t="n">
-        <v>1087.683159487371</v>
+        <v>701.61807215585</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1302.576789404184</v>
+        <v>977.0694062730072</v>
       </c>
       <c r="C5" t="n">
-        <v>1302.576789404184</v>
+        <v>977.0694062730072</v>
       </c>
       <c r="D5" t="n">
-        <v>944.3110907974333</v>
+        <v>618.8037076662567</v>
       </c>
       <c r="E5" t="n">
-        <v>944.3110907974333</v>
+        <v>233.0154550680125</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078258</v>
+        <v>226.069954318809</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>214.405608083502</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816085</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2507.811478780105</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2299.06583738593</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2045.48477665011</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V5" t="n">
-        <v>2045.48477665011</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="W5" t="n">
-        <v>1692.716121379995</v>
+        <v>1753.808578312941</v>
       </c>
       <c r="X5" t="n">
-        <v>1692.716121379995</v>
+        <v>1753.808578312941</v>
       </c>
       <c r="Y5" t="n">
-        <v>1302.576789404184</v>
+        <v>1363.669246337129</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310614</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625332</v>
+        <v>1117.223096727985</v>
       </c>
       <c r="M6" t="n">
-        <v>1165.206974733667</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N6" t="n">
-        <v>1552.492103330612</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O6" t="n">
-        <v>1884.562538506774</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
         <v>2447.023413292609</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>496.992271614743</v>
+        <v>370.2996089082458</v>
       </c>
       <c r="C7" t="n">
-        <v>496.992271614743</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D7" t="n">
-        <v>346.8756322024072</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E7" t="n">
-        <v>346.8756322024072</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
         <v>51.24678656800311</v>
@@ -4725,52 +4725,52 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1048.115628253779</v>
+        <v>1544.831862022881</v>
       </c>
       <c r="V7" t="n">
-        <v>793.4311400478917</v>
+        <v>1290.147373816994</v>
       </c>
       <c r="W7" t="n">
-        <v>504.0139700109311</v>
+        <v>1000.730203780033</v>
       </c>
       <c r="X7" t="n">
-        <v>504.0139700109311</v>
+        <v>772.7406528820156</v>
       </c>
       <c r="Y7" t="n">
-        <v>496.992271614743</v>
+        <v>551.9480737384855</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>893.0229723523616</v>
+        <v>1660.900948886692</v>
       </c>
       <c r="C8" t="n">
-        <v>893.0229723523616</v>
+        <v>1291.93843194628</v>
       </c>
       <c r="D8" t="n">
-        <v>893.0229723523616</v>
+        <v>933.6727333395299</v>
       </c>
       <c r="E8" t="n">
-        <v>893.0229723523616</v>
+        <v>547.8844807412856</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>136.8985759516781</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
@@ -4807,10 +4807,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V8" t="n">
-        <v>2022.530799662409</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W8" t="n">
-        <v>1669.762144392295</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="X8" t="n">
-        <v>1669.762144392295</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="Y8" t="n">
-        <v>1279.622812416483</v>
+        <v>2047.500788950814</v>
       </c>
     </row>
     <row r="9">
@@ -4859,10 +4859,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
         <v>607.9167021542605</v>
@@ -4871,40 +4871,40 @@
         <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>114.5432626034352</v>
       </c>
       <c r="K9" t="n">
-        <v>590.20497511435</v>
+        <v>299.2648838844851</v>
       </c>
       <c r="L9" t="n">
-        <v>884.9085321458217</v>
+        <v>593.9684409159568</v>
       </c>
       <c r="M9" t="n">
-        <v>1248.170551105042</v>
+        <v>957.2304598751767</v>
       </c>
       <c r="N9" t="n">
-        <v>1635.455679701987</v>
+        <v>1344.515588472122</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878149</v>
+        <v>1676.586023648284</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710446</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4922,7 +4922,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
         <v>1307.279776881661</v>
@@ -4962,52 +4962,52 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1558.449961813773</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
-        <v>1558.449961813773</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1269.331624317611</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V10" t="n">
-        <v>1269.331624317611</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="W10" t="n">
-        <v>1269.331624317611</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="X10" t="n">
-        <v>1269.331624317611</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="Y10" t="n">
-        <v>1269.331624317611</v>
+        <v>1114.255484944676</v>
       </c>
     </row>
     <row r="11">
@@ -5035,31 +5035,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111725</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5068,25 +5068,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>409.1360811687904</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>904.461687384549</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>1501.840175011101</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>950.7540666811333</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>781.8178837532264</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408906</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1581.18466155292</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1353.195110654903</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>1132.402531511373</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="15">
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="L15" t="n">
-        <v>740.5562989961525</v>
+        <v>352.5519571452619</v>
       </c>
       <c r="M15" t="n">
-        <v>1337.934786622704</v>
+        <v>949.9304447718135</v>
       </c>
       <c r="N15" t="n">
-        <v>1965.532750177311</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2517.442480416598</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1983.7822433412</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>1729.097755135313</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1183.79546553984</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>963.0028863963103</v>
       </c>
     </row>
     <row r="17">
@@ -5497,40 +5497,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G19" t="n">
         <v>317.6151975578602</v>
@@ -5703,22 +5703,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2066.540128420693</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1777.464901764891</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1522.780413559004</v>
       </c>
       <c r="W19" t="n">
-        <v>1280.315625093766</v>
+        <v>1233.363243522043</v>
       </c>
       <c r="X19" t="n">
-        <v>1280.315625093766</v>
+        <v>1005.373692624026</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>784.5811134804959</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5782,22 +5782,22 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>779.6143379232838</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5937,25 +5937,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1954.146591037919</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1699.462102832032</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1410.044932795071</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1182.055381897054</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>961.2628027535235</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
@@ -5986,10 +5986,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6071,16 +6071,16 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6183,16 +6183,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,10 +6214,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,10 +6360,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>801.6918836311989</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C28" t="n">
-        <v>632.7557007032921</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D28" t="n">
         <v>484.8112968429803</v>
@@ -6414,22 +6414,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2085.82313412342</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1796.747907467618</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1542.063419261731</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1252.64624922477</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>1024.656698326753</v>
       </c>
       <c r="Y28" t="n">
-        <v>983.3403484614387</v>
+        <v>803.8641191832229</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>950.7540666811332</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6648,25 +6648,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2414.36154645157</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>2125.286319795768</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1870.601831589881</v>
       </c>
       <c r="W31" t="n">
-        <v>1500.747069396417</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="X31" t="n">
-        <v>1272.757518498399</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y31" t="n">
-        <v>1098.667160263527</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="32">
@@ -6688,16 +6688,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6706,16 +6706,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3342.537229081859</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>3173.601046153952</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>3023.484406741616</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>2875.571313159223</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4440.9326143059</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>4151.857387650098</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>3897.172899444211</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>3607.75572940725</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>3607.75572940725</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>3524.185693912098</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6937,10 +6937,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7019,25 +7019,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1470.207143961552</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>803.8641191832229</v>
+        <v>1022.530292372932</v>
       </c>
       <c r="C37" t="n">
-        <v>634.927936255316</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
         <v>484.8112968429803</v>
@@ -7125,22 +7125,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1942.37805728168</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1652.96088724472</v>
       </c>
       <c r="X37" t="n">
-        <v>1144.284195611858</v>
+        <v>1424.971336346702</v>
       </c>
       <c r="Y37" t="n">
-        <v>985.5125840134626</v>
+        <v>1204.178757203172</v>
       </c>
     </row>
     <row r="38">
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7250,25 +7250,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>409.1360811687896</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7365,19 +7365,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7411,19 +7411,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>923.0670414349511</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7614,7 +7614,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>705.9324428257312</v>
       </c>
     </row>
     <row r="44">
@@ -7639,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7851,7 +7851,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8069,19 +8069,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>199.751631150407</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>305.1601501039159</v>
       </c>
       <c r="P3" t="n">
-        <v>265.0304328515151</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,16 +8294,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>138.9393975111056</v>
       </c>
       <c r="M6" t="n">
-        <v>211.0329012241552</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0.9556134883069234</v>
       </c>
       <c r="K9" t="n">
-        <v>168.7434581780645</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23418,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>115.4620467826932</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>251.5051752800062</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>75.03697526434112</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>17.42427990597307</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23901,10 +23901,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>88.18825743108309</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>134.6711151870886</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,16 +24129,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U22" t="n">
-        <v>82.07684380973541</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>108.2431272522977</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>2.150513196503681</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>40.90318636666098</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24846,7 +24846,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>185.1299285698844</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.2351986995707</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>135.8503182118945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,16 +25314,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>75.37549921168807</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25365,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>61.40075786968296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>10.32607348286601</v>
       </c>
     </row>
     <row r="44">
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>834034.6482973921</v>
+        <v>834034.6482973919</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>834034.6482973921</v>
+        <v>834034.6482973919</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>834034.6482973918</v>
+        <v>834034.6482973919</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>834034.6482973919</v>
+        <v>834034.6482973918</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>834034.6482973919</v>
+        <v>834034.6482973918</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>834034.6482973919</v>
+        <v>834034.6482973921</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>834034.6482973919</v>
+        <v>834034.6482973918</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>834034.6482973919</v>
+        <v>834034.6482973921</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>834034.6482973918</v>
+        <v>834034.6482973919</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>595255.2831516048</v>
+      </c>
+      <c r="C2" t="n">
+        <v>595255.2831516049</v>
+      </c>
+      <c r="D2" t="n">
         <v>595255.2831516051</v>
-      </c>
-      <c r="C2" t="n">
-        <v>595255.2831516053</v>
-      </c>
-      <c r="D2" t="n">
-        <v>595255.2831516049</v>
       </c>
       <c r="E2" t="n">
         <v>585181.2847752542</v>
       </c>
       <c r="F2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752541</v>
       </c>
       <c r="G2" t="n">
         <v>585181.2847752542</v>
       </c>
       <c r="H2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752547</v>
       </c>
       <c r="I2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="J2" t="n">
         <v>585181.2847752544</v>
       </c>
-      <c r="J2" t="n">
-        <v>585181.2847752545</v>
-      </c>
       <c r="K2" t="n">
-        <v>585181.2847752541</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="L2" t="n">
         <v>585181.2847752545</v>
       </c>
       <c r="M2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="N2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="O2" t="n">
-        <v>585181.2847752547</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="P2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752545</v>
       </c>
     </row>
     <row r="3">
@@ -26368,19 +26368,19 @@
         <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245458</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.246394276677165e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,16 +26423,16 @@
         <v>133113.8635467443</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="E4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
+        <v>7507.36846171977</v>
+      </c>
+      <c r="G4" t="n">
         <v>7507.368461719667</v>
-      </c>
-      <c r="G4" t="n">
-        <v>7507.368461719668</v>
       </c>
       <c r="H4" t="n">
         <v>7507.368461719667</v>
@@ -26444,7 +26444,7 @@
         <v>7507.368461719667</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719721</v>
       </c>
       <c r="L4" t="n">
         <v>7507.368461719667</v>
@@ -26472,7 +26472,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-745548.1364109034</v>
+        <v>-745548.1364109037</v>
       </c>
       <c r="C6" t="n">
+        <v>369203.6471650159</v>
+      </c>
+      <c r="D6" t="n">
         <v>369203.647165016</v>
       </c>
-      <c r="D6" t="n">
-        <v>369203.6471650159</v>
-      </c>
       <c r="E6" t="n">
-        <v>-30934.05513491837</v>
+        <v>-31281.43438927517</v>
       </c>
       <c r="F6" t="n">
-        <v>476551.3864896275</v>
+        <v>476204.0072352703</v>
       </c>
       <c r="G6" t="n">
-        <v>476551.3864896274</v>
+        <v>476204.0072352703</v>
       </c>
       <c r="H6" t="n">
-        <v>476551.3864896275</v>
+        <v>476204.0072352709</v>
       </c>
       <c r="I6" t="n">
-        <v>476551.3864896276</v>
+        <v>476204.0072352708</v>
       </c>
       <c r="J6" t="n">
-        <v>308946.2086796452</v>
+        <v>308598.8294252881</v>
       </c>
       <c r="K6" t="n">
-        <v>476551.3864896272</v>
+        <v>476204.0072352707</v>
       </c>
       <c r="L6" t="n">
-        <v>476551.3864896277</v>
+        <v>476204.0072352708</v>
       </c>
       <c r="M6" t="n">
-        <v>343944.0927607008</v>
+        <v>343596.7135063441</v>
       </c>
       <c r="N6" t="n">
-        <v>476551.3864896274</v>
+        <v>476204.0072352708</v>
       </c>
       <c r="O6" t="n">
-        <v>476551.3864896278</v>
+        <v>476204.0072352706</v>
       </c>
       <c r="P6" t="n">
-        <v>476551.3864896276</v>
+        <v>476204.0072352708</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26962,13 +26962,13 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241345</v>
+        <v>433.9106082241344</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>152.5411846017344</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>158.3466780384435</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -27429,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27539,16 +27539,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>68.52365271300887</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27587,7 +27587,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>187.5419760964682</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>139.4913192620615</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>69.46964427494451</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27785,13 +27785,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>195.5290386501004</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27839,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>211.6331719398685</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>351.7937898230264</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>326.7524312831158</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>153.5253779792056</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>117.4462636836202</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28338,7 +28338,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -29529,7 +29529,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31518,43 +31518,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,7 +31609,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31618,25 +31618,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31709,13 +31709,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,40 +31837,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>303.402437346477</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32077,25 +32077,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>246.9596973201452</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
-        <v>169.9530009943068</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32320,7 +32320,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32329,16 +32329,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>354.9153144485699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32791,7 +32791,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32967,10 +32967,10 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
         <v>125.31755462929</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33031,7 +33031,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,16 +33040,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>297.7596336167232</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33259,16 +33259,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>404.0195168876591</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33277,16 +33277,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,16 +33496,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>211.7351844430274</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,16 +33514,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33739,10 +33739,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,16 +33751,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>535.8585467435948</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33970,13 +33970,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>305.187676947251</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33988,10 +33988,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34207,10 +34207,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34219,22 +34219,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>519.7862086120942</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34780,7 +34780,7 @@
         <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378501</v>
@@ -34789,19 +34789,19 @@
         <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>590.9487307432809</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P3" t="n">
-        <v>514.7099619750473</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>436.6197581489557</v>
       </c>
       <c r="M6" t="n">
-        <v>577.9642335061958</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>63.93583437922432</v>
       </c>
       <c r="K9" t="n">
-        <v>355.3309544215493</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
@@ -35269,13 +35269,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35342,7 +35342,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35351,7 +35351,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>165.560998372118</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>108.405317540271</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
-        <v>35.9785935799765</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,7 +35968,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,16 +35977,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36615,10 +36615,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,7 +36679,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,16 +36688,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>163.785226202393</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>265.4651371077849</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,16 +36925,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>73.18080466315317</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,16 +37162,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37387,10 +37387,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,16 +37399,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>393.2623022991504</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>167.346237972892</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37636,10 +37636,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37867,22 +37867,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>388.4444965287609</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2183733.986346222</v>
+        <v>2185494.516649008</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283191</v>
+        <v>416855.1052283194</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -673,10 +673,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>253.2010247345105</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>296.1112417926705</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -828,13 +828,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>76.89739530992237</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>122.5913320454781</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
@@ -904,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>297.1787180929311</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -913,7 +913,7 @@
         <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>161.5272333003439</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>90.69811547110022</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>56.60860467372773</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>44.68260110765672</v>
       </c>
       <c r="G8" t="n">
-        <v>84.79527148983823</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>26.30660220273166</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1305,10 +1305,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>12.78122206559895</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>80.07147829118261</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>30.97191586387601</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417092</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1779,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1824,13 +1824,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>208.2853754830641</v>
+        <v>185.4048731212358</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2010,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>139.5115415340471</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>129.2171928962052</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>80.08971311158706</v>
       </c>
     </row>
     <row r="23">
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2721,10 +2721,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>176.5022639606273</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444125</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2958,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>32.27552175740387</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>240.06330988836</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3325,7 +3325,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>91.87132188693977</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>180.3302385618272</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3517,10 +3517,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187843</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T39" t="n">
         <v>188.3046392154443</v>
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>61.62152140682814</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>208.2585798692288</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1076.257000807301</v>
+        <v>1500.227517577121</v>
       </c>
       <c r="C2" t="n">
-        <v>1076.257000807301</v>
+        <v>1131.265000636709</v>
       </c>
       <c r="D2" t="n">
-        <v>717.9913022005505</v>
+        <v>772.9993020299587</v>
       </c>
       <c r="E2" t="n">
-        <v>717.9913022005505</v>
+        <v>772.9993020299587</v>
       </c>
       <c r="F2" t="n">
-        <v>307.005397410943</v>
+        <v>362.0133972403511</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>350.3490510050441</v>
       </c>
       <c r="H2" t="n">
         <v>51.24678656800311</v>
@@ -4330,13 +4330,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4363,19 +4363,19 @@
         <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2184.059060190805</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V2" t="n">
-        <v>1852.996172847234</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="W2" t="n">
-        <v>1852.996172847234</v>
+        <v>1500.227517577121</v>
       </c>
       <c r="X2" t="n">
-        <v>1852.996172847234</v>
+        <v>1500.227517577121</v>
       </c>
       <c r="Y2" t="n">
-        <v>1462.856840871423</v>
+        <v>1500.227517577121</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182521</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>143.6627691908469</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>590.2049751143497</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>884.9085321458215</v>
       </c>
       <c r="M3" t="n">
-        <v>956.284402521753</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N3" t="n">
-        <v>1541.323645957601</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4448,10 +4448,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>701.61807215585</v>
+        <v>599.0346656714327</v>
       </c>
       <c r="C4" t="n">
-        <v>701.61807215585</v>
+        <v>599.0346656714327</v>
       </c>
       <c r="D4" t="n">
-        <v>551.5014327435142</v>
+        <v>448.9180262590969</v>
       </c>
       <c r="E4" t="n">
-        <v>551.5014327435142</v>
+        <v>448.9180262590969</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>448.9180262590969</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>280.9315615673755</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234358</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1439.817372234358</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U4" t="n">
-        <v>1439.817372234358</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="V4" t="n">
-        <v>1439.817372234358</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="W4" t="n">
-        <v>1150.400202197397</v>
+        <v>1047.81679571298</v>
       </c>
       <c r="X4" t="n">
-        <v>922.4106512993801</v>
+        <v>819.8272448149628</v>
       </c>
       <c r="Y4" t="n">
-        <v>701.61807215585</v>
+        <v>599.0346656714327</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>977.0694062730072</v>
+        <v>728.3028554854573</v>
       </c>
       <c r="C5" t="n">
-        <v>977.0694062730072</v>
+        <v>728.3028554854573</v>
       </c>
       <c r="D5" t="n">
-        <v>618.8037076662567</v>
+        <v>370.0371568787068</v>
       </c>
       <c r="E5" t="n">
-        <v>233.0154550680125</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F5" t="n">
-        <v>226.069954318809</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G5" t="n">
-        <v>214.405608083502</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
         <v>51.24678656800311</v>
@@ -4567,10 +4567,10 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816085</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
         <v>795.7553530872917</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>2106.577233583055</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W5" t="n">
-        <v>1753.808578312941</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X5" t="n">
-        <v>1753.808578312941</v>
+        <v>1505.042027525391</v>
       </c>
       <c r="Y5" t="n">
-        <v>1363.669246337129</v>
+        <v>1114.902695549579</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>684.9695361605188</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>1117.223096727985</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M6" t="n">
-        <v>1480.485115687205</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N6" t="n">
-        <v>1867.77024428415</v>
+        <v>1590.463386300792</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1922.533821476953</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4758,7 +4758,7 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1544.831862022881</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V7" t="n">
         <v>1290.147373816994</v>
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1660.900948886692</v>
+        <v>1287.435190625613</v>
       </c>
       <c r="C8" t="n">
-        <v>1291.93843194628</v>
+        <v>918.472673685201</v>
       </c>
       <c r="D8" t="n">
-        <v>933.6727333395299</v>
+        <v>560.2069750784506</v>
       </c>
       <c r="E8" t="n">
-        <v>547.8844807412856</v>
+        <v>174.4187224802063</v>
       </c>
       <c r="F8" t="n">
-        <v>136.8985759516781</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
@@ -4807,10 +4807,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4846,10 +4846,10 @@
         <v>2437.640120926626</v>
       </c>
       <c r="X8" t="n">
-        <v>2437.640120926626</v>
+        <v>2064.174362665546</v>
       </c>
       <c r="Y8" t="n">
-        <v>2047.500788950814</v>
+        <v>1674.035030689734</v>
       </c>
     </row>
     <row r="9">
@@ -4877,31 +4877,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>114.5432626034352</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>299.2648838844851</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>593.9684409159568</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M9" t="n">
-        <v>957.2304598751767</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>1344.515588472122</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O9" t="n">
-        <v>1676.586023648284</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1087.683159487371</v>
+        <v>932.6070201144365</v>
       </c>
       <c r="C10" t="n">
-        <v>918.7469765594642</v>
+        <v>763.6708371865296</v>
       </c>
       <c r="D10" t="n">
-        <v>768.6303371471284</v>
+        <v>613.5541977741939</v>
       </c>
       <c r="E10" t="n">
-        <v>620.7172435647353</v>
+        <v>465.6411041918008</v>
       </c>
       <c r="F10" t="n">
-        <v>473.8272960668249</v>
+        <v>318.7511566938904</v>
       </c>
       <c r="G10" t="n">
         <v>305.8408313751036</v>
@@ -4962,34 +4962,34 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.23396574994</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
         <v>1114.255484944676</v>
@@ -5035,31 +5035,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5068,25 +5068,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>409.1360811687904</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>904.461687384549</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1501.840175011101</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="C13" t="n">
-        <v>580.8993044876688</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D13" t="n">
-        <v>580.8993044876688</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
@@ -5293,37 +5293,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273898</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452619</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718135</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>781.3544215660705</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>612.4182386381636</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704551</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="X16" t="n">
-        <v>1183.79546553984</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>963.0028863963103</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332386</v>
@@ -5533,34 +5533,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>784.5811134804959</v>
+        <v>695.5020655703064</v>
       </c>
       <c r="C19" t="n">
-        <v>615.644930552589</v>
+        <v>526.5658826423995</v>
       </c>
       <c r="D19" t="n">
-        <v>465.5282911402533</v>
+        <v>376.4492432300638</v>
       </c>
       <c r="E19" t="n">
-        <v>317.6151975578602</v>
+        <v>376.4492432300638</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>376.4492432300638</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5682,43 +5682,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T19" t="n">
-        <v>2066.540128420693</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U19" t="n">
-        <v>1777.464901764891</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V19" t="n">
-        <v>1522.780413559004</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W19" t="n">
-        <v>1233.363243522043</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X19" t="n">
-        <v>1005.373692624026</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y19" t="n">
-        <v>784.5811134804959</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5779,10 +5779,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466572</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5940,22 +5940,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5980,16 +5980,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6135,16 +6135,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6214,19 +6214,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6238,10 +6238,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.8641191832229</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>634.927936255316</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
         <v>484.8112968429803</v>
@@ -6411,25 +6411,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2085.82313412342</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U28" t="n">
-        <v>1796.747907467618</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V28" t="n">
-        <v>1542.063419261731</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W28" t="n">
-        <v>1252.64624922477</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>1024.656698326753</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>803.8641191832229</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>950.7540666811332</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C31" t="n">
-        <v>781.8178837532263</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>631.7012443408905</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2414.36154645157</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2125.286319795768</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1870.601831589881</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1581.18466155292</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1353.195110654903</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6694,10 +6694,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6706,16 +6706,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6888,22 +6888,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6931,10 +6931,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111712</v>
@@ -6943,34 +6943,34 @@
         <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1022.530292372932</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487567</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U37" t="n">
-        <v>2197.062545487567</v>
+        <v>2045.209862480144</v>
       </c>
       <c r="V37" t="n">
-        <v>1942.37805728168</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W37" t="n">
-        <v>1652.96088724472</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X37" t="n">
-        <v>1424.971336346702</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y37" t="n">
-        <v>1204.178757203172</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192582</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
@@ -7183,43 +7183,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="39">
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273895</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.155464951614</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.45752234853</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>634.4644740681601</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910801</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570809</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279794</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853352</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580252</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832654</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2317.673418815656</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2098.071953838597</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1808.996727182795</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1554.312238976908</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1264.895068939947</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>1036.90551804193</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>816.1129388983999</v>
       </c>
     </row>
     <row r="41">
@@ -7399,16 +7399,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7420,10 +7420,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7614,7 +7614,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>705.9324428257312</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7639,16 +7639,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>30.36925650589448</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8069,16 +8069,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>199.751631150407</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039159</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>138.9393975111056</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>249.387732507165</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>70.03064962107879</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>20.93778120154991</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9556134883069234</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>265.0304328515146</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>99.76050189075468</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>115.4620467826932</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>17.42427990597307</v>
+        <v>40.30478226780136</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>26.01259675822178</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>88.18825743108309</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
     </row>
     <row r="23">
@@ -24375,13 +24375,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>62.35543909864957</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,10 +24609,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>40.90318636666098</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>185.1299285698844</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>75.37549921168807</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>105.8542358274169</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>119.4047645948165</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>10.32607348286601</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>834034.6482973919</v>
+        <v>834034.6482973921</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>834034.6482973919</v>
+        <v>834034.6482973918</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>834034.6482973918</v>
+        <v>834034.6482973919</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>834034.6482973921</v>
+        <v>834034.6482973918</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>834034.6482973921</v>
+        <v>834034.6482973919</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>834034.6482973918</v>
+        <v>834034.6482973916</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>834034.6482973919</v>
+        <v>834034.6482973918</v>
       </c>
     </row>
     <row r="16">
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516048</v>
+        <v>595255.2831516049</v>
       </c>
       <c r="C2" t="n">
         <v>595255.2831516049</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516051</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="E2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="F2" t="n">
         <v>585181.2847752542</v>
-      </c>
-      <c r="F2" t="n">
-        <v>585181.2847752541</v>
       </c>
       <c r="G2" t="n">
         <v>585181.2847752542</v>
       </c>
       <c r="H2" t="n">
-        <v>585181.2847752547</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="I2" t="n">
         <v>585181.2847752545</v>
       </c>
       <c r="J2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="K2" t="n">
         <v>585181.2847752544</v>
@@ -26346,10 +26346,10 @@
         <v>585181.2847752545</v>
       </c>
       <c r="M2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="N2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="O2" t="n">
         <v>585181.2847752544</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245457</v>
+        <v>507485.4416245458</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.246394276677165e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>3.080258466070518e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="C4" t="n">
         <v>133113.8635467443</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.36846171977</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719708</v>
       </c>
       <c r="I4" t="n">
         <v>7507.368461719667</v>
@@ -26444,13 +26444,13 @@
         <v>7507.368461719667</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719721</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="L4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719721</v>
       </c>
       <c r="N4" t="n">
         <v>7507.368461719667</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-745548.1364109037</v>
+        <v>-745548.136410904</v>
       </c>
       <c r="C6" t="n">
-        <v>369203.6471650159</v>
+        <v>369203.6471650162</v>
       </c>
       <c r="D6" t="n">
-        <v>369203.647165016</v>
+        <v>369203.6471650164</v>
       </c>
       <c r="E6" t="n">
-        <v>-31281.43438927517</v>
+        <v>-30968.79306035371</v>
       </c>
       <c r="F6" t="n">
-        <v>476204.0072352703</v>
+        <v>476516.6485641917</v>
       </c>
       <c r="G6" t="n">
-        <v>476204.0072352703</v>
+        <v>476516.6485641917</v>
       </c>
       <c r="H6" t="n">
-        <v>476204.0072352709</v>
+        <v>476516.6485641919</v>
       </c>
       <c r="I6" t="n">
-        <v>476204.0072352708</v>
+        <v>476516.6485641921</v>
       </c>
       <c r="J6" t="n">
-        <v>308598.8294252881</v>
+        <v>308911.4707542095</v>
       </c>
       <c r="K6" t="n">
-        <v>476204.0072352707</v>
+        <v>476516.6485641919</v>
       </c>
       <c r="L6" t="n">
-        <v>476204.0072352708</v>
+        <v>476516.648564192</v>
       </c>
       <c r="M6" t="n">
-        <v>343596.7135063441</v>
+        <v>343909.3548352651</v>
       </c>
       <c r="N6" t="n">
-        <v>476204.0072352708</v>
+        <v>476516.6485641921</v>
       </c>
       <c r="O6" t="n">
-        <v>476204.0072352706</v>
+        <v>476516.6485641915</v>
       </c>
       <c r="P6" t="n">
-        <v>476204.0072352708</v>
+        <v>476516.648564192</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26773,7 +26773,7 @@
         <v>1367.975500341674</v>
       </c>
       <c r="N3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="O3" t="n">
         <v>1367.975500341674</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241344</v>
+        <v>433.9106082241345</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>158.3466780384435</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>4.907310769734863</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27548,13 +27548,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>68.52365271300887</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>24.66017710965073</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27624,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>84.75165197933063</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27633,7 +27633,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>139.4913192620615</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27830,10 +27830,10 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>195.5290386501004</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>195.5290386501003</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>362.1934446340547</v>
       </c>
       <c r="G8" t="n">
-        <v>326.7524312831158</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.5253779792056</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>153.5253779792052</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28338,7 +28338,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28581,7 +28581,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28754,7 +28754,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>-4.713266813875332e-12</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28800,7 +28800,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29529,7 +29529,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -30045,7 +30045,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30237,7 +30237,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2.330580173293129e-12</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30413,7 +30413,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>-6.402476642473416e-12</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31518,43 +31518,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,7 +31609,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31618,25 +31618,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31709,13 +31709,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,25 +31840,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>303.402437346477</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32077,25 +32077,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>246.9596973201452</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>169.9530009943068</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32317,10 +32317,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>337.5641188593844</v>
+        <v>246.9596973201446</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32332,7 +32332,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32967,7 +32967,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558027</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,10 +34000,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34049,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>93.34947739681193</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>590.9487307432809</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000389</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>436.6197581489557</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O6" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>319.710178744611</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>63.93583437922432</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
@@ -35269,10 +35269,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634694</v>
+        <v>514.7099619750469</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35342,7 +35342,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35351,7 +35351,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>165.560998372118</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>108.405317540271</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,7 +35889,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462684</v>
       </c>
       <c r="M17" t="n">
         <v>735.3001107902948</v>
@@ -35965,10 +35965,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>199.0097390795102</v>
+        <v>108.4053175402704</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35980,7 +35980,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36050,7 +36050,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010404</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36375,7 +36375,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
@@ -36615,7 +36615,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113583</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010372</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
